--- a/upgrade/fixtures/wires.xlsx
+++ b/upgrade/fixtures/wires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\upgrade\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71415783-35E3-4935-989F-D73F4FB4DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C9C9D-A221-4772-8E55-FB4DBCF76F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26205" yWindow="7425" windowWidth="23955" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="2145" windowWidth="33615" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>services</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>PuffSmith\Wire\Import\WireImport</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB6C6F-32B5-4267-8ABA-9DA71FE199A2}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +489,7 @@
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -493,8 +502,11 @@
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -504,8 +516,11 @@
       <c r="C2">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -515,8 +530,11 @@
       <c r="C3">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -526,8 +544,11 @@
       <c r="C4">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -537,8 +558,11 @@
       <c r="C5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -548,8 +572,11 @@
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -559,8 +586,11 @@
       <c r="C7">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -570,8 +600,11 @@
       <c r="C8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -581,8 +614,11 @@
       <c r="C9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -592,8 +628,11 @@
       <c r="C10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -603,8 +642,11 @@
       <c r="C11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -614,8 +656,11 @@
       <c r="C12">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -625,8 +670,11 @@
       <c r="C13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -636,8 +684,11 @@
       <c r="C14">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -647,8 +698,11 @@
       <c r="C15">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -658,8 +712,11 @@
       <c r="C16">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -669,8 +726,11 @@
       <c r="C17">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -680,8 +740,11 @@
       <c r="C18">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -691,8 +754,11 @@
       <c r="C19">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -702,8 +768,11 @@
       <c r="C20">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -713,8 +782,11 @@
       <c r="C21">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -724,8 +796,11 @@
       <c r="C22">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -735,8 +810,11 @@
       <c r="C23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -746,8 +824,11 @@
       <c r="C24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -757,8 +838,11 @@
       <c r="C25">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -768,8 +852,11 @@
       <c r="C26">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -779,8 +866,11 @@
       <c r="C27">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -790,8 +880,11 @@
       <c r="C28">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -801,8 +894,11 @@
       <c r="C29">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -812,8 +908,11 @@
       <c r="C30">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -823,8 +922,11 @@
       <c r="C31">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -834,8 +936,11 @@
       <c r="C32">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -845,8 +950,11 @@
       <c r="C33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -856,8 +964,11 @@
       <c r="C34">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -867,8 +978,11 @@
       <c r="C35">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -878,8 +992,11 @@
       <c r="C36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -889,8 +1006,11 @@
       <c r="C37">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -900,8 +1020,11 @@
       <c r="C38">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -911,8 +1034,11 @@
       <c r="C39">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -922,8 +1048,11 @@
       <c r="C40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -933,8 +1062,11 @@
       <c r="C41">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -944,8 +1076,11 @@
       <c r="C42">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -955,8 +1090,11 @@
       <c r="C43">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -966,8 +1104,11 @@
       <c r="C44">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -977,8 +1118,11 @@
       <c r="C45">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -988,8 +1132,11 @@
       <c r="D46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -998,6 +1145,9 @@
       </c>
       <c r="D47" t="s">
         <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
